--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3987016.354711939</v>
+        <v>3984764.275000731</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.78083674902027</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>120.7740905403536</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>134.5916654001852</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>190.0182967731491</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>378.8017771651965</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -953,10 +953,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>87.28121759428751</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1023,7 +1023,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>32.24238685723913</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.08802744677259</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6171786498004</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>54.06815287720611</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.1841578398753</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>61.05801487789269</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710061</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460241</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>36.85665993309902</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444121</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174151</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>28.54004930889191</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,16 +1847,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832886</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>125.2851635392057</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2084,16 +2084,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>41.16673120696699</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>125.2851635392057</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>21.69718571885186</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.95488441967092</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763727</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514128</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>173.5437604722314</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>139.9142662664077</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7197280522379</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>45.17596778974989</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>87.71169339385442</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,13 +3949,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>196.3965208613886</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4183,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V46" t="n">
-        <v>168.3381167077338</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>950.1045973369964</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,19 +4346,19 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450753</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2424.744041450753</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666.202517612298</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>497.2663346843912</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>497.2663346843912</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>349.353241101998</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>202.4632936040877</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>202.4632936040877</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>537.2634481367795</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>666.202517612298</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>666.202517612298</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>666.202517612298</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223197</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="C5" t="n">
-        <v>883.8708262827852</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>883.8708262827852</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>498.0825736845409</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>491.1370729353375</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2336.581195395918</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>1963.115437134838</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287319</v>
+        <v>1572.976105159027</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>563.5047572728761</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2701.192632958763</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.726874697683</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4878,10 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031473</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>531.2215399677106</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>531.2215399677106</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>417.6040489720659</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.0944266746553</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,19 +5027,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,43 +5048,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191922</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349506</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061502</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616109</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>366.9636532421617</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831764</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625877</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588916</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.896109690899</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362669</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637303</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684175</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,64 +5501,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>315.9123021921476</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5774,28 +5774,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,34 +5814,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683104</v>
+        <v>842.6091804069459</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>768.5380889459591</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>599.6019060180522</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>449.4852666057164</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729352</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>1170.979132919729</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>950.1865537761988</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191923</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349509</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061502</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6203,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
@@ -6233,40 +6233,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>781.3544215660705</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C28" t="n">
-        <v>612.4182386381636</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2427.816735681603</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2244.961901336507</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2244.961901336507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1955.886674680705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1701.202186474818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.0028863963103</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>228.9331431646415</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K30" t="n">
-        <v>562.8579153358621</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>642.8692823226939</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.3929232910542</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>782.4567403631473</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>632.3401009508116</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>484.4270073684185</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,52 +6923,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9304447718133</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>591.7265122257533</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>709.4207169875</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>559.3040775751642</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>411.3909839927711</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>264.5010364948607</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>264.5010364948607</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1652.717886400351</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.3544215660705</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>612.4182386381636</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1701.202186474818</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1411.785016437858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.79546553984</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>963.0028863963103</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.40333084624476</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>181.7279934189958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909864873</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>257.6444250803522</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>62.35543909864867</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>92.12028678808259</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.2672314396022</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>92.12028678808259</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>264.8258126177391</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.42036229045077</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.0188038644575</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>127.725524766796</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>112.9792378643596</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>24.63391537253398</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>5.506781756523509</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>45.71423459433126</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>180.5336875992872</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>52.58301945236947</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25837,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>55.74112246243942</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26071,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V46" t="n">
-        <v>83.79952661609417</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>619998.6049278002</v>
+        <v>619998.6049278001</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619998.6049278002</v>
+        <v>619998.6049278001</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642828</v>
@@ -26320,16 +26320,16 @@
         <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
         <v>807146.599690006</v>
@@ -26338,19 +26338,19 @@
         <v>807146.5996900065</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900065</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,22 +26372,22 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073545</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.306437428928272e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>5.95095233257619e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7.723256517081231e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.7441040525</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405252</v>
       </c>
-      <c r="D4" t="n">
-        <v>93596.74410405253</v>
-      </c>
       <c r="E4" t="n">
-        <v>15436.64000687975</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687976</v>
+        <v>15436.64000687954</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.6400068797</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687977</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26448,10 +26448,10 @@
         <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687966</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709233.6605287554</v>
+        <v>-709233.6605287555</v>
       </c>
       <c r="C6" t="n">
         <v>619511.085198837</v>
@@ -26528,40 +26528,40 @@
         <v>619511.0851988371</v>
       </c>
       <c r="E6" t="n">
-        <v>365174.9680518648</v>
+        <v>365140.2301264281</v>
       </c>
       <c r="F6" t="n">
-        <v>690587.4298592192</v>
+        <v>690552.6919337836</v>
       </c>
       <c r="G6" t="n">
-        <v>690587.429859219</v>
+        <v>690552.6919337837</v>
       </c>
       <c r="H6" t="n">
-        <v>690587.4298592197</v>
+        <v>690552.6919337835</v>
       </c>
       <c r="I6" t="n">
-        <v>690587.4298592195</v>
+        <v>690552.6919337839</v>
       </c>
       <c r="J6" t="n">
-        <v>473056.2274619421</v>
+        <v>473021.4895365066</v>
       </c>
       <c r="K6" t="n">
-        <v>690587.4298592195</v>
+        <v>690552.6919337837</v>
       </c>
       <c r="L6" t="n">
-        <v>690587.4298592196</v>
+        <v>690552.6919337838</v>
       </c>
       <c r="M6" t="n">
-        <v>605532.401923708</v>
+        <v>605497.6639982716</v>
       </c>
       <c r="N6" t="n">
-        <v>690587.4298592195</v>
+        <v>690552.6919337838</v>
       </c>
       <c r="O6" t="n">
-        <v>690587.4298592196</v>
+        <v>690552.6919337839</v>
       </c>
       <c r="P6" t="n">
-        <v>690587.4298592198</v>
+        <v>690552.6919337841</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.641684154535613e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.485553101011755e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.319024324290925e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.319024324290925e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26744,10 +26744,10 @@
         <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.641684154535613e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.319024324290925e-14</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.322659830244689e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483748</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.641684154535613e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.319024324290925e-14</v>
+        <v>9.654070646351539e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.322659830244689e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303.9530049144603</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>261.1562795319082</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>10.16334951413558</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>29.53065250302006</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>32.11994848825691</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>261.9597511231255</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>193.467268531798</v>
       </c>
       <c r="Y7" t="n">
-        <v>146.4966259053222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>202.3131914224614</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>295.1728158402069</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.647822342062</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>225.1538233277202</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.641684154535613e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.39341866056212e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.641684154535613e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.641684154535613e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.641684154535613e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28147,16 +28147,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.641684154535613e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.641684154535613e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.641684154535613e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28336,13 +28336,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-9.602855171198864e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>7.485553101011755e-14</v>
+        <v>-9.654070646351539e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>1.676880856393836e-12</v>
+        <v>-9.654070646351539e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,19 +28375,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.485553101011755e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.485553101011755e-14</v>
+        <v>-9.654070646351539e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>7.485553101011755e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.485553101011755e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.485553101011755e-14</v>
+        <v>-2.025414319020989e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28567,16 +28567,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-9.654070646351539e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-9.654070646351539e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-9.654070646351539e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-9.654070646351539e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-9.654070646351539e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28804,13 +28804,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>7.958986972621253e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31601,10 +31601,10 @@
         <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.461131202643</v>
       </c>
       <c r="K9" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138797</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>469.5567819573399</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319862</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>151.9914336104064</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>285.8867128925993</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,34 +32312,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>360.3952288121454</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>191.3323016788553</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175665</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043702</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,22 +32552,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>301.1823051500296</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>601.0567753070482</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32576,7 +32576,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N24" t="n">
-        <v>151.9914336104085</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>261.5336801130329</v>
+        <v>247.3820194983578</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>513.0745614164389</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>499.3768644016574</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852615</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P42" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,16 +34451,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597634</v>
       </c>
       <c r="K9" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340056</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>327.4227480353216</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875417</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>20.64972152707313</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>151.9123054782691</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5537898377865</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552202</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902938</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902381</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>159.0482712280113</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>469.7150632237149</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N24" t="n">
-        <v>20.64972152707519</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>134.6960534463662</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>283.5755383312247</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>374.5201816365647</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>368.035152318324</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P42" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
